--- a/science/digital_economy_society_statistics/social_media_graph6_data.xlsx
+++ b/science/digital_economy_society_statistics/social_media_graph6_data.xlsx
@@ -44,27 +44,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>obtain</t>
-  </si>
-  <si>
-    <t>develop</t>
-  </si>
-  <si>
-    <t>recruit</t>
-  </si>
-  <si>
-    <t>exchange</t>
-  </si>
-  <si>
-    <t>involve</t>
-  </si>
-  <si>
-    <t>collaborate</t>
-  </si>
-  <si>
-    <t>PC_ENT</t>
-  </si>
-  <si>
     <t>EU28</t>
   </si>
   <si>
@@ -75,6 +54,27 @@
   </si>
   <si>
     <t>S_C10_S951_XK</t>
+  </si>
+  <si>
+    <t>PC_ENT_SM</t>
+  </si>
+  <si>
+    <t>E_SM_PADVERT</t>
+  </si>
+  <si>
+    <t>E_SM_PCUQOR</t>
+  </si>
+  <si>
+    <t>E_SM_PRCR</t>
+  </si>
+  <si>
+    <t>E_SM_PEXCHVOC</t>
+  </si>
+  <si>
+    <t>E_SM_PCUDEV</t>
+  </si>
+  <si>
+    <t>E_SM_PBPCOLL</t>
   </si>
 </sst>
 </file>
@@ -403,13 +403,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,16 +439,16 @@
         <v>87</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>2019</v>
@@ -458,16 +459,16 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -478,16 +479,16 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>2019</v>
@@ -498,16 +499,16 @@
         <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>2019</v>
@@ -518,16 +519,16 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -538,16 +539,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -558,16 +559,16 @@
         <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -578,16 +579,16 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>2019</v>
@@ -598,16 +599,16 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>2019</v>
@@ -618,16 +619,16 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>2019</v>
@@ -638,16 +639,16 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>2019</v>
@@ -658,16 +659,16 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>2019</v>
@@ -678,16 +679,16 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>2019</v>
@@ -698,16 +699,16 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <v>2019</v>
@@ -718,16 +719,16 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>2019</v>
@@ -738,16 +739,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>2019</v>
@@ -758,16 +759,16 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>2019</v>
@@ -778,16 +779,16 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>2019</v>
